--- a/以太网配置/以太网配置汇总表.xlsx
+++ b/以太网配置/以太网配置汇总表.xlsx
@@ -28,6 +28,69 @@
 </workbook>
 </file>
 
+<file path=xl/cellimages.xml><?xml version="1.0" encoding="utf-8"?>
+<etc:cellImages xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="ID_B0B5C7BEAE604286A63572D3F9D57F55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9319260" y="914400"/>
+          <a:ext cx="8907780" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="ID_17E78F9E0C6C445A9EDE96676BBCBA54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9319260" y="1463040"/>
+          <a:ext cx="9616440" cy="5737860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
+</etc:cellImages>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
@@ -67,7 +130,9 @@
     <t>C390以太网配置要求v1.6-mADC</t>
   </si>
   <si>
-    <t>系统：党博</t>
+    <t>系统：党博
+TBOX 4G/5G ARP采用动态学习方式
+备注：</t>
   </si>
   <si>
     <t>CX810</t>
@@ -77,7 +142,8 @@
   </si>
   <si>
     <t>系统：种一帆
-整车EE：余承阳</t>
+整车EE：余承阳
+备注：EDC(SOC2-Android) 不配置MAC-IP静态关系</t>
   </si>
   <si>
     <t>P866</t>
@@ -799,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,6 +874,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1129,13 +1198,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="8.66666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5555555555556" style="2" customWidth="1"/>
@@ -1184,26 +1253,34 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" ht="43.2" spans="2:5">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" ht="28.8" spans="2:4">
+      <c r="E6" t="str">
+        <f>_xlfn.DISPIMG("ID_B0B5C7BEAE604286A63572D3F9D57F55",1)</f>
+        <v>=DISPIMG("ID_B0B5C7BEAE604286A63572D3F9D57F55",1)</v>
+      </c>
+    </row>
+    <row r="7" ht="49.05" spans="2:5">
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xlfn.DISPIMG("ID_17E78F9E0C6C445A9EDE96676BBCBA54",1)</f>
+        <v>=DISPIMG("ID_17E78F9E0C6C445A9EDE96676BBCBA54",1)</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="2:4">
@@ -1213,7 +1290,7 @@
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1251,10 +1328,10 @@
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1289,10 +1366,10 @@
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
     </row>
